--- a/prov.xlsx
+++ b/prov.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7761" uniqueCount="6487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7766" uniqueCount="6489">
   <si>
     <t>Signatur</t>
   </si>
@@ -19512,6 +19512,12 @@
   </si>
   <si>
     <t>L-1903-154986992</t>
+  </si>
+  <si>
+    <t>(Tp) Harba, Karl</t>
+  </si>
+  <si>
+    <t>(TP) Gering, Hugo</t>
   </si>
 </sst>
 </file>
@@ -19921,10 +19927,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -20045,6 +20051,9 @@
       <c r="F3" s="13">
         <v>999484265</v>
       </c>
+      <c r="G3" t="s">
+        <v>6487</v>
+      </c>
       <c r="I3" t="s">
         <v>3982</v>
       </c>
@@ -20071,6 +20080,9 @@
       <c r="F4" s="13">
         <v>999484311</v>
       </c>
+      <c r="G4" t="s">
+        <v>6487</v>
+      </c>
       <c r="I4" t="s">
         <v>3982</v>
       </c>
@@ -20097,6 +20109,9 @@
       <c r="F5" s="13">
         <v>999484354</v>
       </c>
+      <c r="G5" t="s">
+        <v>6487</v>
+      </c>
       <c r="I5" t="s">
         <v>3982</v>
       </c>
@@ -20123,6 +20138,9 @@
       <c r="F6" s="13">
         <v>999484427</v>
       </c>
+      <c r="G6" t="s">
+        <v>6487</v>
+      </c>
       <c r="I6" t="s">
         <v>3982</v>
       </c>
@@ -20148,6 +20166,9 @@
       </c>
       <c r="F7" s="13">
         <v>994487231</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6488</v>
       </c>
       <c r="J7" t="s">
         <v>3986</v>
